--- a/temp/demo.xlsx
+++ b/temp/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="船厂" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_ASA87" localSheetId="2">'[1]FJ-1'!#REF!</definedName>
     <definedName name="__ASA87" localSheetId="1">'[1]FJ-1'!#REF!</definedName>
     <definedName name="______ASA87">'[1]FJ-1'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">船厂!$3:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">船厂!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">船东!$3:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">船检!$3:$5</definedName>
   </definedNames>
@@ -245,7 +245,7 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -270,12 +270,6 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -662,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -832,6 +826,106 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -962,15 +1056,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -979,153 +1076,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1134,11 +1228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1247,19 +1341,37 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2016,15 +2128,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
@@ -2036,12 +2148,12 @@
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:6">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" ht="26.25" customHeight="1" spans="1:6">
       <c r="A2" s="14"/>
@@ -2108,13 +2220,14 @@
       <c r="F6" s="37"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
+    <row r="8" ht="15.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
@@ -2435,10 +2548,10 @@
       <formula>"$W-$X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.669291338582677" right="0.15748031496063" top="0.393700787401575" bottom="0.196850393700787" header="0.15748031496063" footer="0.236220472440945"/>
+  <pageMargins left="0.66875" right="0.156944444444444" top="0.393055555555556" bottom="0.196527777777778" header="0.156944444444444" footer="0.236111111111111"/>
   <pageSetup paperSize="9" scale="85" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;R&amp;"Times New Roman,常规"
+    <oddHeader>&amp;R
 &amp;P/&amp;N+1
       </oddHeader>
   </headerFooter>
@@ -2459,7 +2572,7 @@
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
@@ -2543,12 +2656,12 @@
       <c r="F6" s="37"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2893,7 +3006,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
@@ -2977,12 +3090,12 @@
       <c r="F6" s="37"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="38"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/temp/demo.xlsx
+++ b/temp/demo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="23040" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="船厂" sheetId="13" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="______ASA87">'[1]FJ-1'!#REF!</definedName>
+    <definedName name="__ASA87" localSheetId="1">'[1]FJ-1'!#REF!</definedName>
     <definedName name="_ASA87" localSheetId="2">'[1]FJ-1'!#REF!</definedName>
-    <definedName name="__ASA87" localSheetId="1">'[1]FJ-1'!#REF!</definedName>
-    <definedName name="______ASA87">'[1]FJ-1'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">船厂!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">船东!$3:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">船检!$3:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">船东!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">船检!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +58,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>AREA  (m</t>
     </r>
@@ -67,7 +67,7 @@
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -75,28 +75,13 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">REMARK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(YARDREF.NO.)</t>
-    </r>
+    <t xml:space="preserve">REMARK </t>
   </si>
   <si>
     <t>序号</t>
@@ -114,7 +99,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -140,7 +125,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">         </t>
     </r>
@@ -166,7 +151,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -192,7 +177,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -218,7 +203,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
-        <charset val="0"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -259,12 +244,12 @@
     <font>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -274,27 +259,36 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color indexed="36"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,14 +297,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,7 +335,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +343,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,22 +351,22 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,59 +374,60 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Geneva"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -443,7 +438,7 @@
     <font>
       <sz val="11"/>
       <name val="돋움"/>
-      <charset val="0"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -454,12 +449,7 @@
       <vertAlign val="superscript"/>
       <sz val="11"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -495,7 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +646,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -669,7 +659,7 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -678,7 +668,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -689,7 +679,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -700,7 +690,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -711,7 +701,7 @@
       <right style="thick">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -762,6 +752,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -823,61 +826,6 @@
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -949,7 +897,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -958,17 +906,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1049,192 +988,192 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1251,6 +1190,7 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1285,97 +1225,82 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="72">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
     <cellStyle name="货币" xfId="2" builtinId="4"/>
@@ -1444,17 +1369,10 @@
     <cellStyle name="常规 4 5" xfId="65"/>
     <cellStyle name="常规 5" xfId="66"/>
     <cellStyle name="常规 8" xfId="67"/>
-    <cellStyle name="常规_SC4282-401-01js" xfId="68"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版" xfId="69"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版 12" xfId="70"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版 12 2" xfId="71"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版 2 11" xfId="72"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版 5" xfId="73"/>
-    <cellStyle name="常规_基本图纸目录 散货船 综合版 8" xfId="74"/>
-    <cellStyle name="货币 2" xfId="75"/>
-    <cellStyle name="昗弨_JP_NEW_9512" xfId="76"/>
-    <cellStyle name="寘嬫愗傝 [0.00]_laroux" xfId="77"/>
-    <cellStyle name="寘嬫愗傝_laroux" xfId="78"/>
+    <cellStyle name="货币 2" xfId="68"/>
+    <cellStyle name="昗弨_JP_NEW_9512" xfId="69"/>
+    <cellStyle name="寘嬫愗傝 [0.00]_laroux" xfId="70"/>
+    <cellStyle name="寘嬫愗傝_laroux" xfId="71"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2130,30 +2048,28 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1" spans="1:6">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" ht="26.25" customHeight="1" spans="1:6">
       <c r="A2" s="14"/>
@@ -2161,71 +2077,71 @@
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" ht="26.25" customHeight="1" spans="1:6">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" ht="32.25" customHeight="1" spans="1:6">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
-    <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
+    <row r="7" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" ht="15.15"/>
   </sheetData>
@@ -2548,12 +2464,11 @@
       <formula>"$W-$X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.66875" right="0.156944444444444" top="0.393055555555556" bottom="0.196527777777778" header="0.156944444444444" footer="0.236111111111111"/>
-  <pageSetup paperSize="9" scale="85" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <pageMargins left="0.551181102362205" right="0.275590551181102" top="0.393700787401575" bottom="0.196850393700787" header="0.15748031496063" footer="0.236220472440945"/>
+  <pageSetup paperSize="9" scale="84" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R
-&amp;P/&amp;N+1
-      </oddHeader>
+  &amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2564,26 +2479,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+    <row r="1" ht="26.25" customHeight="1" spans="1:6">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -2591,78 +2504,79 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+    <row r="2" ht="26.25" customHeight="1" spans="1:6">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="19"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+    <row r="3" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:6">
-      <c r="A4" s="24" t="s">
+    <row r="4" ht="32.25" customHeight="1" spans="1:6">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
-    <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+    <row r="7" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
+    <row r="8" ht="15.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
@@ -2983,11 +2897,11 @@
       <formula>"$W-$X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.669291338582677" right="0.15748031496063" top="0.393700787401575" bottom="0.196850393700787" header="0.15748031496063" footer="0.236220472440945"/>
-  <pageSetup paperSize="9" scale="85" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <pageMargins left="0.551181102362205" right="0.275590551181102" top="0.393700787401575" bottom="0.196850393700787" header="0.15748031496063" footer="0.236220472440945"/>
+  <pageSetup paperSize="9" scale="84" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;"Times New Roman,常规"
-&amp;P/&amp;N+1      </oddHeader>
+&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2998,26 +2912,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:C2"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="4.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="36.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.25" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="46.625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="11.625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+    <row r="1" ht="26.25" customHeight="1" spans="1:6">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -3025,78 +2937,79 @@
       <c r="E1" s="12"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
+    <row r="2" ht="26.25" customHeight="1" spans="1:6">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="19"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="26.25" customHeight="1" spans="1:6">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+    <row r="3" ht="26.25" customHeight="1" spans="1:6">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="32.25" customHeight="1" spans="1:6">
-      <c r="A4" s="24" t="s">
+    <row r="4" ht="32.25" customHeight="1" spans="1:6">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
-      <c r="A5" s="29" t="s">
+    <row r="5" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:6">
+      <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="33" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
+    <row r="6" s="2" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
     </row>
-    <row r="7" s="4" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
+    <row r="7" s="3" customFormat="1" ht="24" customHeight="1" spans="1:6">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
     </row>
+    <row r="8" ht="15.15"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
@@ -3417,11 +3330,11 @@
       <formula>"$W-$X"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.669291338582677" right="0.15748031496063" top="0.393700787401575" bottom="0.393700787401575" header="0.15748031496063" footer="0.236220472440945"/>
-  <pageSetup paperSize="9" scale="85" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
+  <pageMargins left="0.551181102362205" right="0.275590551181102" top="0.393700787401575" bottom="0.393700787401575" header="0.15748031496063" footer="0.236220472440945"/>
+  <pageSetup paperSize="9" scale="84" firstPageNumber="2" fitToHeight="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;R&amp;"Times New Roman,常规"
-&amp;P/&amp;N+1      </oddHeader>
+&amp;P</oddHeader>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
